--- a/2023/scotland_league-two_2023-2024.xlsx
+++ b/2023/scotland_league-two_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.25</v>
+        <v>1.58</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.13</v>
+        <v>3.62</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.23</v>
+        <v>4.09</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.96</v>
+        <v>4.03</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.29</v>
+        <v>5.54</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-stranraer/U9cuqjMD/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-elgin-city/dKsKy8Em/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Elgin City</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.73</v>
+        <v>2.31</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.58</v>
+        <v>2.32</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.62</v>
+        <v>3.27</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.09</v>
+        <v>3.52</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.03</v>
+        <v>2.77</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>5.54</v>
+        <v>2.93</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-elgin-city/dKsKy8Em/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stenhousemuir/vqmFxlas/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.27</v>
+        <v>3.13</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.52</v>
+        <v>3.23</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.77</v>
+        <v>2.96</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.93</v>
+        <v>3.29</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stenhousemuir/vqmFxlas/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-stranraer/U9cuqjMD/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.12</v>
+        <v>2.49</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.69</v>
+        <v>2.44</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.19</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.07</v>
+        <v>2.6</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.69</v>
+        <v>2.76</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-dumbarton/AslzYPDC/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-east-fife/zBtOzSTg/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.42</v>
+        <v>3.03</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.64</v>
+        <v>3.17</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>3.11</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-spartans/SIbVY5b6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-bonnyrigg-rose/UXuSZoq0/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Clyde</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.65</v>
+        <v>2.42</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.79</v>
+        <v>2.6</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:37</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.75</v>
+        <v>3.24</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.76</v>
+        <v>3.42</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.52</v>
+        <v>2.64</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.25</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:37</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-clyde/lYnvXqTI/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-spartans/SIbVY5b6/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.49</v>
+        <v>2.12</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.44</v>
+        <v>2.69</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>3.19</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.6</v>
+        <v>3.07</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.76</v>
+        <v>2.69</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-east-fife/zBtOzSTg/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-dumbarton/AslzYPDC/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.12</v>
+        <v>1.65</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.46</v>
+        <v>1.79</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:37</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.17</v>
+        <v>3.75</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.03</v>
+        <v>3.76</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.17</v>
+        <v>4.52</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.11</v>
+        <v>4.25</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:37</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-bonnyrigg-rose/UXuSZoq0/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-clyde/lYnvXqTI/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Stenhousemuir</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
       <c r="J22" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.37</v>
+        <v>3.41</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.59</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.26</v>
+        <v>3.52</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.57</v>
+        <v>4.05</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-stenhousemuir/UoL0lobg/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-east-fife/MLHhj7Tt/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.91</v>
+        <v>3.23</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.41</v>
+        <v>3.26</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.52</v>
+        <v>2.95</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.05</v>
+        <v>2.17</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-east-fife/MLHhj7Tt/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-forfar-athletic/GvuQfmLP/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.18</v>
+        <v>1.75</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.23</v>
+        <v>1.74</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.26</v>
+        <v>3.52</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.48</v>
+        <v>3.58</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.95</v>
+        <v>4.08</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.17</v>
+        <v>4.95</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-forfar-athletic/GvuQfmLP/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-elgin-city/xltMeT5J/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.52</v>
+        <v>3.37</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.95</v>
+        <v>3.57</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-elgin-city/xltMeT5J/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-stenhousemuir/UoL0lobg/</t>
         </is>
       </c>
     </row>
@@ -4226,6 +4226,282 @@
       <c r="V41" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-clyde/U5HHtfdp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:04</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:04</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:04</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-dumbarton/z3873H3c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:05</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:04</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:05</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-peterhead/dIdG1eY9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:04</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-spartans/jgBJ0FmG/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-two_2023-2024.xlsx
+++ b/2023/scotland_league-two_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.08</v>
+        <v>3.12</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 14:24</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.05</v>
+        <v>3.36</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.29</v>
+        <v>3.65</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 14:24</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.67</v>
+        <v>2.16</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 14:24</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-forfar-athletic/xz1msUjQ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-peterhead/rD1qrAyK/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Peterhead</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
       <c r="J16" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.12</v>
+        <v>2.08</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 14:24</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.36</v>
+        <v>3.05</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.65</v>
+        <v>3.29</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 14:24</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.16</v>
+        <v>3.67</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 14:24</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-peterhead/rD1qrAyK/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-forfar-athletic/xz1msUjQ/</t>
         </is>
       </c>
     </row>
@@ -4502,6 +4502,282 @@
       <c r="V44" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-spartans/jgBJ0FmG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-clyde/UqANaZ2M/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stranraer/C8aSbgIS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>20/10/2023 22:20</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:04</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>20/10/2023 22:20</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-dumbarton/Msk2hied/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-two_2023-2024.xlsx
+++ b/2023/scotland_league-two_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.27</v>
+        <v>3.05</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.52</v>
+        <v>3.29</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.93</v>
+        <v>3.67</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stenhousemuir/vqmFxlas/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-forfar-athletic/xz1msUjQ/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.05</v>
+        <v>3.27</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.29</v>
+        <v>3.52</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.67</v>
+        <v>2.93</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-forfar-athletic/xz1msUjQ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stenhousemuir/vqmFxlas/</t>
         </is>
       </c>
     </row>
@@ -4778,6 +4778,98 @@
       <c r="V47" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-two/spartans-dumbarton/Msk2hied/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-stenhousemuir/IRcC2yJ3/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-two_2023-2024.xlsx
+++ b/2023/scotland_league-two_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,71 +1033,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.26</v>
+        <v>2.29</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 13:02</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.18</v>
+        <v>3.34</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.31</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 14:04</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.63</v>
+        <v>3.08</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 13:02</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-east-fife/QyXbzbID/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-bonnyrigg-rose/I5prvtJl/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.29</v>
+        <v>2.49</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12/08/2023 13:02</t>
+          <t>12/08/2023 15:13</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.31</v>
+        <v>3.39</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12/08/2023 14:04</t>
+          <t>12/08/2023 15:13</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3.09</v>
+        <v>2.78</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>12/08/2023 13:02</t>
+          <t>12/08/2023 15:13</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-bonnyrigg-rose/I5prvtJl/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-stenhousemuir/noYfyv37/</t>
         </is>
       </c>
     </row>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.49</v>
+        <v>2.26</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>12/08/2023 15:13</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.41</v>
+        <v>3.18</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.39</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>12/08/2023 15:13</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.97</v>
+        <v>2.63</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.78</v>
+        <v>3.04</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>12/08/2023 15:13</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-stenhousemuir/noYfyv37/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-east-fife/QyXbzbID/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.05</v>
+        <v>3.27</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.29</v>
+        <v>3.52</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.67</v>
+        <v>2.93</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-forfar-athletic/xz1msUjQ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stenhousemuir/vqmFxlas/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Peterhead</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
       <c r="J14" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.12</v>
+        <v>2.08</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19/08/2023 14:24</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.36</v>
+        <v>3.05</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.65</v>
+        <v>3.29</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19/08/2023 14:24</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.16</v>
+        <v>3.67</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>19/08/2023 14:24</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-peterhead/rD1qrAyK/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-forfar-athletic/xz1msUjQ/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.25</v>
+        <v>3.12</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 14:24</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.13</v>
+        <v>3.36</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.23</v>
+        <v>3.65</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 14:24</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.29</v>
+        <v>2.16</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 14:24</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-stranraer/U9cuqjMD/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-peterhead/rD1qrAyK/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.27</v>
+        <v>3.13</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.52</v>
+        <v>3.23</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.77</v>
+        <v>2.96</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.93</v>
+        <v>3.29</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stenhousemuir/vqmFxlas/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-stranraer/U9cuqjMD/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.49</v>
+        <v>1.65</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.44</v>
+        <v>1.79</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:37</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.18</v>
+        <v>3.75</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.6</v>
+        <v>4.52</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.76</v>
+        <v>4.25</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:37</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-east-fife/zBtOzSTg/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-clyde/lYnvXqTI/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.12</v>
+        <v>2.49</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.03</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.17</v>
+        <v>2.6</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.11</v>
+        <v>2.76</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-bonnyrigg-rose/UXuSZoq0/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-east-fife/zBtOzSTg/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.42</v>
+        <v>3.03</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.64</v>
+        <v>3.17</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>3.11</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-spartans/SIbVY5b6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-bonnyrigg-rose/UXuSZoq0/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.29</v>
+        <v>3.24</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.19</v>
+        <v>3.42</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.07</v>
+        <v>2.64</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.69</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-dumbarton/AslzYPDC/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-spartans/SIbVY5b6/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.65</v>
+        <v>2.12</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.79</v>
+        <v>2.69</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:37</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.75</v>
+        <v>3.29</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.76</v>
+        <v>3.19</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.52</v>
+        <v>3.07</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>4.25</v>
+        <v>2.69</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:37</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-clyde/lYnvXqTI/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-dumbarton/AslzYPDC/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>East Fife</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.41</v>
+        <v>3.52</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.52</v>
+        <v>4.08</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.05</v>
+        <v>4.95</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-east-fife/MLHhj7Tt/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-elgin-city/xltMeT5J/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.18</v>
+        <v>2.01</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.23</v>
+        <v>2</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,40 +2536,40 @@
         </is>
       </c>
       <c r="N23" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>31/08/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>02/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
         <v>3.26</v>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>31/08/2023 09:12</t>
         </is>
       </c>
-      <c r="P23" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q23" t="inlineStr">
+      <c r="T23" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U23" t="inlineStr">
         <is>
           <t>02/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R23" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>31/08/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-forfar-athletic/GvuQfmLP/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-stenhousemuir/UoL0lobg/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,40 +2628,40 @@
         </is>
       </c>
       <c r="N24" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>31/08/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>02/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
         <v>3.52</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>31/08/2023 09:13</t>
         </is>
       </c>
-      <c r="P24" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q24" t="inlineStr">
+      <c r="T24" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U24" t="inlineStr">
         <is>
           <t>02/09/2023 15:58</t>
         </is>
       </c>
-      <c r="R24" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>31/08/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:58</t>
-        </is>
-      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-elgin-city/xltMeT5J/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-east-fife/MLHhj7Tt/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.01</v>
+        <v>2.18</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>3.23</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.37</v>
+        <v>3.26</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.59</v>
+        <v>3.48</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.26</v>
+        <v>2.95</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.57</v>
+        <v>2.17</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-stenhousemuir/UoL0lobg/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-forfar-athletic/GvuQfmLP/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 04:13</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.13</v>
+        <v>2.43</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:18</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.31</v>
+        <v>3.19</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 04:13</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.44</v>
+        <v>3.35</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:18</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.2</v>
+        <v>3.03</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 04:13</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.36</v>
+        <v>2.88</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:18</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-stranraer/z5wEqNCO/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-bonnyrigg-rose/M1Z9p3cI/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,63 +2973,63 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.23</v>
+        <v>2.42</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>15/09/2023 04:13</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.43</v>
+        <v>2.83</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/09/2023 15:18</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>15/09/2023 04:13</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.35</v>
+        <v>3.23</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16/09/2023 15:18</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.03</v>
+        <v>2.73</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>15/09/2023 04:13</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.88</v>
+        <v>2.54</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>16/09/2023 15:18</t>
+          <t>16/09/2023 14:05</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-bonnyrigg-rose/M1Z9p3cI/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-spartans/Svz6oqrC/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.42</v>
+        <v>3.23</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.83</v>
+        <v>4.32</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.12</v>
+        <v>3.29</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.23</v>
+        <v>3.76</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.73</v>
+        <v>2.05</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.54</v>
+        <v>1.79</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 14:05</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-spartans/Svz6oqrC/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-dumbarton/lly2nPS5/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.23</v>
+        <v>1.9</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,48 +3172,48 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4.32</v>
+        <v>1.88</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>16/09/2023 12:36</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>14/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>16/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="R30" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>14/09/2023 09:13</t>
         </is>
       </c>
-      <c r="P30" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:59</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>14/09/2023 09:13</t>
-        </is>
-      </c>
       <c r="T30" t="n">
-        <v>1.79</v>
+        <v>4.19</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-dumbarton/lly2nPS5/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-clyde/8xK4m5Da/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.88</v>
+        <v>2.13</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 12:36</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.53</v>
+        <v>3.2</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.19</v>
+        <v>3.36</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-clyde/8xK4m5Da/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-stranraer/z5wEqNCO/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>2.44</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.66</v>
+        <v>2.67</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
           <t>07/10/2023 15:04</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="R42" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>05/10/2023 08:12</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:04</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:12</t>
-        </is>
-      </c>
       <c r="T42" t="n">
-        <v>1.97</v>
+        <v>2.57</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:04</t>
+          <t>07/10/2023 15:27</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-dumbarton/z3873H3c/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-spartans/jgBJ0FmG/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>2.44</v>
+        <v>3.4</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.67</v>
+        <v>3.66</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:04</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.11</v>
+        <v>3.3</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.41</v>
+        <v>3.61</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.71</v>
+        <v>1.98</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.57</v>
+        <v>1.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:04</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-spartans/jgBJ0FmG/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-dumbarton/z3873H3c/</t>
         </is>
       </c>
     </row>
@@ -4870,6 +4870,466 @@
       <c r="V48" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-stenhousemuir/IRcC2yJ3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:50</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:50</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-spartans/baYpHzYd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-bonnyrigg-rose/xjXlGfm3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-stenhousemuir/WCWhFE29/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-east-fife/rmzcEYHF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-elgin-city/QBP1DhXL/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-two_2023-2024.xlsx
+++ b/2023/scotland_league-two_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.29</v>
+        <v>2.49</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>12/08/2023 13:02</t>
+          <t>12/08/2023 15:13</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.31</v>
+        <v>3.39</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>12/08/2023 14:04</t>
+          <t>12/08/2023 15:13</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.09</v>
+        <v>2.78</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>12/08/2023 13:02</t>
+          <t>12/08/2023 15:13</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-bonnyrigg-rose/I5prvtJl/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-stenhousemuir/noYfyv37/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.49</v>
+        <v>2.29</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12/08/2023 15:13</t>
+          <t>12/08/2023 13:02</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.39</v>
+        <v>3.31</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12/08/2023 15:13</t>
+          <t>12/08/2023 14:04</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.97</v>
+        <v>3.08</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.78</v>
+        <v>3.09</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>12/08/2023 15:13</t>
+          <t>12/08/2023 13:02</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-stenhousemuir/noYfyv37/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-bonnyrigg-rose/I5prvtJl/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>2.44</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.67</v>
+        <v>3.66</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:04</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.11</v>
+        <v>3.3</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.41</v>
+        <v>3.61</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.71</v>
+        <v>1.98</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.57</v>
+        <v>1.97</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:04</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-spartans/jgBJ0FmG/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-dumbarton/z3873H3c/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>3.4</v>
+        <v>2.44</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,48 +4460,48 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.66</v>
+        <v>2.67</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>07/10/2023 15:04</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="R44" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>05/10/2023 08:12</t>
         </is>
       </c>
-      <c r="P44" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:04</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:12</t>
-        </is>
-      </c>
       <c r="T44" t="n">
-        <v>1.97</v>
+        <v>2.57</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/10/2023 15:04</t>
+          <t>07/10/2023 15:27</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-dumbarton/z3873H3c/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-spartans/jgBJ0FmG/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>20/10/2023 22:20</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:04</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
         <v>3</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Clyde</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="K45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>19/10/2023 08:13</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:49</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:49</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
       <c r="T45" t="n">
-        <v>4.43</v>
+        <v>2.65</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>20/10/2023 22:20</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-clyde/UqANaZ2M/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-dumbarton/Msk2hied/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>2.03</v>
+        <v>1.66</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.03</v>
+        <v>1.78</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.33</v>
+        <v>3.65</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.6</v>
+        <v>3.72</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.23</v>
+        <v>4.46</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.49</v>
+        <v>4.43</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stranraer/C8aSbgIS/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-clyde/UqANaZ2M/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2.16</v>
+        <v>2.03</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>20/10/2023 22:20</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.28</v>
+        <v>3.33</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>21/10/2023 14:04</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.65</v>
+        <v>3.49</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>20/10/2023 22:20</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-dumbarton/Msk2hied/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stranraer/C8aSbgIS/</t>
         </is>
       </c>
     </row>
@@ -5330,6 +5330,466 @@
       <c r="V53" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-elgin-city/QBP1DhXL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:35</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-stranraer/I94t6APe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-dumbarton/42O5CCnS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-bonnyrigg-rose/dfGX7Wfq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-clyde/zoFy7jAk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-spartans/WC8p5Uv2/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-two_2023-2024.xlsx
+++ b/2023/scotland_league-two_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.66</v>
+        <v>2.03</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.78</v>
+        <v>2.03</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.65</v>
+        <v>3.33</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.72</v>
+        <v>3.6</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.46</v>
+        <v>3.23</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.43</v>
+        <v>3.49</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-clyde/UqANaZ2M/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stranraer/C8aSbgIS/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2.03</v>
+        <v>1.66</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.03</v>
+        <v>1.78</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.33</v>
+        <v>3.65</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.6</v>
+        <v>3.72</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.23</v>
+        <v>4.46</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.49</v>
+        <v>4.43</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stranraer/C8aSbgIS/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-clyde/UqANaZ2M/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.63</v>
+        <v>2.88</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.7</v>
+        <v>2.86</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>11/11/2023 15:35</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.76</v>
+        <v>3.24</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.95</v>
+        <v>3.62</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.48</v>
+        <v>2.25</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.65</v>
+        <v>2.32</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-stranraer/I94t6APe/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-dumbarton/42O5CCnS/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Dumbarton</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
       <c r="J55" t="n">
-        <v>2.88</v>
+        <v>3.42</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.86</v>
+        <v>3.31</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.62</v>
+        <v>3.48</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.25</v>
+        <v>2.01</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-dumbarton/42O5CCnS/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-bonnyrigg-rose/dfGX7Wfq/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>3.42</v>
+        <v>1.73</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.31</v>
+        <v>1.89</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.32</v>
+        <v>3.59</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.48</v>
+        <v>3.64</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.01</v>
+        <v>4.08</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.14</v>
+        <v>3.92</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:55</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-bonnyrigg-rose/dfGX7Wfq/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-clyde/zoFy7jAk/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:35</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.59</v>
+        <v>3.76</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.64</v>
+        <v>3.95</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.08</v>
+        <v>4.48</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.92</v>
+        <v>4.65</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>11/11/2023 15:55</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-clyde/zoFy7jAk/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-stranraer/I94t6APe/</t>
         </is>
       </c>
     </row>
@@ -5790,6 +5790,98 @@
       <c r="V58" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-spartans/WC8p5Uv2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45244.86458333334</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>14/11/2023 20:27</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>14/11/2023 20:27</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>14/11/2023 20:27</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-peterhead/rijbgXuj/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-two_2023-2024.xlsx
+++ b/2023/scotland_league-two_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -581,14 +581,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 13:14</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.37</v>
+        <v>3.62</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.76</v>
+        <v>3.88</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 14:06</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.32</v>
+        <v>4.03</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.05</v>
+        <v>3.57</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 13:14</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-forfar-athletic/8hEpQWgh/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-peterhead/0SAxShPu/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:52</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.38</v>
+        <v>3.76</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:52</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.33</v>
+        <v>3.32</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.72</v>
+        <v>3.05</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:52</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-clyde/nqDlPj9b/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-forfar-athletic/8hEpQWgh/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.31</v>
+        <v>1.97</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.73</v>
+        <v>1.68</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:52</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.69</v>
+        <v>3.38</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:52</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.82</v>
+        <v>3.33</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>3.72</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:52</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-stranraer/EVEtRCvn/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-clyde/nqDlPj9b/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.73</v>
+        <v>2.31</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.91</v>
+        <v>2.73</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 13:14</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.62</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.88</v>
+        <v>3.69</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 14:06</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.03</v>
+        <v>2.82</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.57</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 13:14</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-peterhead/0SAxShPu/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-stranraer/EVEtRCvn/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.49</v>
+        <v>1.66</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:13</t>
+          <t>12/08/2023 15:33</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.41</v>
+        <v>3.33</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.39</v>
+        <v>4.08</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:13</t>
+          <t>12/08/2023 15:33</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.97</v>
+        <v>3.93</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.78</v>
+        <v>4.74</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:13</t>
+          <t>12/08/2023 14:17</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-stenhousemuir/noYfyv37/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-elgin-city/vLYjxKm1/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.66</v>
+        <v>2.44</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>12/08/2023 15:33</t>
+          <t>12/08/2023 15:48</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.08</v>
+        <v>3.36</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>12/08/2023 15:33</t>
+          <t>12/08/2023 15:48</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.93</v>
+        <v>3.51</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>4.74</v>
+        <v>2.85</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>12/08/2023 14:17</t>
+          <t>12/08/2023 15:48</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-elgin-city/vLYjxKm1/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-spartans/0UZnw0Yf/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.01</v>
+        <v>2.28</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>12/08/2023 15:48</t>
+          <t>12/08/2023 13:02</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.36</v>
+        <v>3.31</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12/08/2023 15:48</t>
+          <t>12/08/2023 14:04</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.51</v>
+        <v>3.08</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.85</v>
+        <v>3.09</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12/08/2023 15:48</t>
+          <t>12/08/2023 13:02</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-spartans/0UZnw0Yf/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-bonnyrigg-rose/I5prvtJl/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.29</v>
+        <v>2.49</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12/08/2023 13:02</t>
+          <t>12/08/2023 15:13</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.31</v>
+        <v>3.39</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12/08/2023 14:04</t>
+          <t>12/08/2023 15:13</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3.09</v>
+        <v>2.78</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>12/08/2023 13:02</t>
+          <t>12/08/2023 15:13</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-bonnyrigg-rose/I5prvtJl/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-stenhousemuir/noYfyv37/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.26</v>
+        <v>1.77</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.21</v>
+        <v>1.95</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/09/2023 15:13</t>
+          <t>23/09/2023 03:28</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.19</v>
+        <v>3.5</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/09/2023 14:15</t>
+          <t>23/09/2023 14:01</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.89</v>
+        <v>3.99</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.28</v>
+        <v>3.9</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/09/2023 15:13</t>
+          <t>23/09/2023 03:28</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-forfar-athletic/nq7W14Sh/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-east-fife/U7dy1Osa/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>23/09/2023 03:28</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.5</v>
+        <v>3.41</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>23/09/2023 14:01</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.99</v>
+        <v>3.62</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.9</v>
+        <v>3.54</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23/09/2023 03:28</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-east-fife/U7dy1Osa/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-peterhead/8h8S2pDn/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>23/09/2023 15:00</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:00</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
           <t>23/09/2023 15:13</t>
         </is>
       </c>
-      <c r="N35" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>21/09/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:13</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>21/09/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:13</t>
-        </is>
-      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-peterhead/8h8S2pDn/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-elgin-city/vJ3O3Qct/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>2</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Elgin City</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
       <c r="J36" t="n">
-        <v>2.05</v>
+        <v>2.26</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.24</v>
+        <v>2.21</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.32</v>
+        <v>3.19</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.41</v>
+        <v>3.33</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 14:15</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.19</v>
+        <v>2.89</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.13</v>
+        <v>3.28</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-elgin-city/vJ3O3Qct/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-forfar-athletic/nq7W14Sh/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.16</v>
+        <v>2.03</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>20/10/2023 22:20</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.28</v>
+        <v>3.33</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>21/10/2023 14:04</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.65</v>
+        <v>3.49</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>20/10/2023 22:20</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-dumbarton/Msk2hied/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stranraer/C8aSbgIS/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>2.03</v>
+        <v>1.66</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.03</v>
+        <v>1.78</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.33</v>
+        <v>3.65</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.6</v>
+        <v>3.72</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.23</v>
+        <v>4.46</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.49</v>
+        <v>4.43</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stranraer/C8aSbgIS/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-clyde/UqANaZ2M/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>20/10/2023 22:20</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:04</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
         <v>3</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Clyde</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="K47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>19/10/2023 08:13</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:49</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:49</t>
-        </is>
-      </c>
-      <c r="R47" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
       <c r="T47" t="n">
-        <v>4.43</v>
+        <v>2.65</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>20/10/2023 22:20</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-clyde/UqANaZ2M/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-dumbarton/Msk2hied/</t>
         </is>
       </c>
     </row>
@@ -5882,6 +5882,466 @@
       <c r="V59" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-peterhead/rijbgXuj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-elgin-city/4ICTRinF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:41</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:41</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:41</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-peterhead/xWAyQVGR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-forfar-athletic/pGdSTDH2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-east-fife/O6eWSXW8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:18</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:18</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-stenhousemuir/r9BXQB1L/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-two_2023-2024.xlsx
+++ b/2023/scotland_league-two_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -581,14 +581,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.73</v>
+        <v>2.31</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.91</v>
+        <v>2.73</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 13:14</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.62</v>
+        <v>3.2</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.88</v>
+        <v>3.69</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05/08/2023 14:06</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.03</v>
+        <v>2.82</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.57</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 13:14</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-peterhead/0SAxShPu/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-stranraer/EVEtRCvn/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.31</v>
+        <v>1.73</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.73</v>
+        <v>1.91</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 13:14</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>3.62</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 14:06</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.82</v>
+        <v>4.03</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>3.57</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 13:14</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-stranraer/EVEtRCvn/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-peterhead/0SAxShPu/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.88</v>
+        <v>2.26</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.06</v>
+        <v>2.21</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.41</v>
+        <v>3.19</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,32 +3556,32 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.46</v>
+        <v>3.33</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
+          <t>23/09/2023 14:15</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
           <t>23/09/2023 15:13</t>
         </is>
       </c>
-      <c r="R34" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>21/09/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:13</t>
-        </is>
-      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-peterhead/8h8S2pDn/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-forfar-athletic/nq7W14Sh/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.32</v>
+        <v>3.41</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.19</v>
+        <v>3.62</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.13</v>
+        <v>3.54</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-elgin-city/vJ3O3Qct/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-peterhead/8h8S2pDn/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.26</v>
+        <v>2.05</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,48 +3724,48 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>23/09/2023 15:00</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:00</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
           <t>23/09/2023 15:13</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>21/09/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>23/09/2023 14:15</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>21/09/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:13</t>
-        </is>
-      </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-forfar-athletic/nq7W14Sh/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-elgin-city/vJ3O3Qct/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>30/09/2023 14:05</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.43</v>
+        <v>3.33</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.84</v>
+        <v>3.42</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>30/09/2023 14:05</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.71</v>
+        <v>3.4</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4.36</v>
+        <v>3.5</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>30/09/2023 14:05</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-stranraer/tr0u0rc5/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-bonnyrigg-rose/8dGLuEBj/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.18</v>
+        <v>1.58</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.47</v>
+        <v>1.68</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.26</v>
+        <v>3.88</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.08</v>
+        <v>4.98</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.89</v>
+        <v>4.93</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-forfar-athletic/z5aqa2CB/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-elgin-city/EebmbMRH/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.85</v>
+        <v>3.72</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.88</v>
+        <v>3.95</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.98</v>
+        <v>4.54</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.93</v>
+        <v>5.42</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:05</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-elgin-city/EebmbMRH/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-clyde/U5HHtfdp/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 14:05</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.33</v>
+        <v>3.43</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.42</v>
+        <v>3.84</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 14:05</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.4</v>
+        <v>3.71</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.5</v>
+        <v>4.36</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 14:05</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-bonnyrigg-rose/8dGLuEBj/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-stranraer/tr0u0rc5/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.63</v>
+        <v>2.18</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.61</v>
+        <v>2.47</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.72</v>
+        <v>3.15</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.95</v>
+        <v>3.26</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.54</v>
+        <v>3.08</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>5.42</v>
+        <v>2.89</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>30/09/2023 15:05</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-clyde/U5HHtfdp/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-forfar-athletic/z5aqa2CB/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>2.03</v>
+        <v>1.66</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.03</v>
+        <v>1.78</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.33</v>
+        <v>3.65</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.6</v>
+        <v>3.72</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.23</v>
+        <v>4.46</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.49</v>
+        <v>4.43</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stranraer/C8aSbgIS/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-clyde/UqANaZ2M/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.66</v>
+        <v>2.03</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.78</v>
+        <v>2.03</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.65</v>
+        <v>3.33</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.72</v>
+        <v>3.6</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.46</v>
+        <v>3.23</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.43</v>
+        <v>3.49</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-clyde/UqANaZ2M/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stranraer/C8aSbgIS/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Spartans</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>2</v>
-      </c>
       <c r="J49" t="n">
-        <v>3.31</v>
+        <v>1.75</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.91</v>
+        <v>1.89</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>04/11/2023 15:50</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.38</v>
+        <v>3.6</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>04/11/2023 15:50</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.02</v>
+        <v>3.96</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.87</v>
+        <v>3.92</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>04/11/2023 15:50</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-spartans/baYpHzYd/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-elgin-city/QBP1DhXL/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:53</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.47</v>
+        <v>3.45</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.75</v>
+        <v>3.53</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:53</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.83</v>
+        <v>3.7</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.74</v>
+        <v>3.3</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:53</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-bonnyrigg-rose/xjXlGfm3/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-east-fife/rmzcEYHF/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.59</v>
+        <v>3.31</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.73</v>
+        <v>3.91</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:50</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.16</v>
+        <v>3.38</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.29</v>
+        <v>3.74</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:50</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.51</v>
+        <v>2.02</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.58</v>
+        <v>1.87</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:50</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-stenhousemuir/WCWhFE29/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-spartans/baYpHzYd/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>04/11/2023 15:53</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.45</v>
+        <v>3.47</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.53</v>
+        <v>3.75</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04/11/2023 15:53</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.7</v>
+        <v>3.83</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.3</v>
+        <v>3.74</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>04/11/2023 15:53</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-east-fife/rmzcEYHF/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-bonnyrigg-rose/xjXlGfm3/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>3</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Elgin City</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.75</v>
+        <v>2.59</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.89</v>
+        <v>2.73</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.6</v>
+        <v>3.16</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.65</v>
+        <v>3.29</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.96</v>
+        <v>2.51</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.92</v>
+        <v>2.58</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-elgin-city/QBP1DhXL/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-stenhousemuir/WCWhFE29/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.44</v>
+        <v>2.03</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,48 +5932,48 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.38</v>
+        <v>2.58</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>18/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
           <t>18/11/2023 15:52</t>
         </is>
       </c>
-      <c r="N60" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="O60" t="inlineStr">
+      <c r="R60" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S60" t="inlineStr">
         <is>
           <t>16/11/2023 09:13</t>
         </is>
       </c>
-      <c r="P60" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>18/11/2023 15:52</t>
-        </is>
-      </c>
-      <c r="R60" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>16/11/2023 09:13</t>
-        </is>
-      </c>
       <c r="T60" t="n">
-        <v>7.89</v>
+        <v>2.88</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-elgin-city/4ICTRinF/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-forfar-athletic/pGdSTDH2/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>2.14</v>
+        <v>2.85</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.24</v>
+        <v>2.86</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>18/11/2023 15:41</t>
+          <t>18/11/2023 15:32</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.57</v>
+        <v>3.25</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>18/11/2023 15:41</t>
+          <t>18/11/2023 15:32</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.98</v>
+        <v>2.27</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.02</v>
+        <v>2.5</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>18/11/2023 15:41</t>
+          <t>18/11/2023 15:32</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-peterhead/xWAyQVGR/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-east-fife/O6eWSXW8/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Forfar Athletic</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
       <c r="J62" t="n">
-        <v>2.03</v>
+        <v>1.44</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.58</v>
+        <v>1.38</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>18/11/2023 15:58</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.33</v>
+        <v>4.29</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.09</v>
+        <v>4.86</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.23</v>
+        <v>5.68</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.88</v>
+        <v>7.89</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>18/11/2023 15:58</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-forfar-athletic/pGdSTDH2/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-elgin-city/4ICTRinF/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.85</v>
+        <v>2.14</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.86</v>
+        <v>2.24</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>18/11/2023 15:32</t>
+          <t>18/11/2023 15:41</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.25</v>
+        <v>3.57</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>18/11/2023 15:32</t>
+          <t>18/11/2023 15:41</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.27</v>
+        <v>2.98</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.5</v>
+        <v>3.02</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>18/11/2023 15:32</t>
+          <t>18/11/2023 15:41</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-east-fife/O6eWSXW8/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-peterhead/xWAyQVGR/</t>
         </is>
       </c>
     </row>
@@ -6342,6 +6342,190 @@
       <c r="V64" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-stenhousemuir/r9BXQB1L/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45251.86458333334</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>21/11/2023 20:39</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>21/11/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>21/11/2023 20:39</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-forfar-athletic/lUjffDQq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45251.86458333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>21/11/2023 17:48</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>21/11/2023 18:47</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>21/11/2023 14:40</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-east-fife/Ma434cli/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-two_2023-2024.xlsx
+++ b/2023/scotland_league-two_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.31</v>
+        <v>1.97</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.73</v>
+        <v>1.68</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:52</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.69</v>
+        <v>3.38</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:52</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.82</v>
+        <v>3.33</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>3.72</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:52</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-stranraer/EVEtRCvn/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-clyde/nqDlPj9b/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.97</v>
+        <v>2.31</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.68</v>
+        <v>2.73</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:52</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.38</v>
+        <v>3.69</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:52</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.33</v>
+        <v>2.82</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.72</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:52</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-clyde/nqDlPj9b/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-stranraer/EVEtRCvn/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.26</v>
+        <v>2.05</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,48 +3540,48 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>23/09/2023 15:00</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:00</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
           <t>23/09/2023 15:13</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>21/09/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>23/09/2023 14:15</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>21/09/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:13</t>
-        </is>
-      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-forfar-athletic/nq7W14Sh/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-elgin-city/vJ3O3Qct/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.88</v>
+        <v>2.26</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.06</v>
+        <v>2.21</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.41</v>
+        <v>3.19</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,32 +3648,32 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.46</v>
+        <v>3.33</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
+          <t>23/09/2023 14:15</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
           <t>23/09/2023 15:13</t>
         </is>
       </c>
-      <c r="R35" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>21/09/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:13</t>
-        </is>
-      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-peterhead/8h8S2pDn/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-forfar-athletic/nq7W14Sh/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.32</v>
+        <v>3.41</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.19</v>
+        <v>3.62</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.13</v>
+        <v>3.54</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-elgin-city/vJ3O3Qct/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-peterhead/8h8S2pDn/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 14:05</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.33</v>
+        <v>3.43</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.42</v>
+        <v>3.84</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 14:05</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.4</v>
+        <v>3.71</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.5</v>
+        <v>4.36</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 14:05</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-bonnyrigg-rose/8dGLuEBj/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-stranraer/tr0u0rc5/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.58</v>
+        <v>2.18</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.68</v>
+        <v>2.47</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.88</v>
+        <v>3.26</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.98</v>
+        <v>3.08</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.93</v>
+        <v>2.89</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-elgin-city/EebmbMRH/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-forfar-athletic/z5aqa2CB/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.72</v>
+        <v>3.85</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.95</v>
+        <v>3.88</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.54</v>
+        <v>4.98</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>5.42</v>
+        <v>4.93</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/09/2023 15:05</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-clyde/U5HHtfdp/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-elgin-city/EebmbMRH/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>30/09/2023 14:05</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.43</v>
+        <v>3.33</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.84</v>
+        <v>3.42</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>30/09/2023 14:05</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.71</v>
+        <v>3.4</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.36</v>
+        <v>3.5</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>30/09/2023 14:05</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-stranraer/tr0u0rc5/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-bonnyrigg-rose/8dGLuEBj/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.18</v>
+        <v>1.63</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.47</v>
+        <v>1.61</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.15</v>
+        <v>3.72</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.26</v>
+        <v>3.95</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.08</v>
+        <v>4.54</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.89</v>
+        <v>5.42</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:05</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-forfar-athletic/z5aqa2CB/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-clyde/U5HHtfdp/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:53</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.65</v>
+        <v>3.53</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:53</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.96</v>
+        <v>3.7</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.92</v>
+        <v>3.3</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:53</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-elgin-city/QBP1DhXL/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-east-fife/rmzcEYHF/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.12</v>
+        <v>1.89</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>04/11/2023 15:53</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.53</v>
+        <v>3.65</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>04/11/2023 15:53</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.7</v>
+        <v>3.96</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.3</v>
+        <v>3.92</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>04/11/2023 15:53</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-east-fife/rmzcEYHF/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-elgin-city/QBP1DhXL/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>3.31</v>
+        <v>1.81</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.91</v>
+        <v>1.91</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>04/11/2023 15:50</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,32 +5120,32 @@
         </is>
       </c>
       <c r="P51" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
         <v>3.74</v>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:50</t>
-        </is>
-      </c>
-      <c r="R51" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>02/11/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T51" t="n">
-        <v>1.87</v>
-      </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>04/11/2023 15:50</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-spartans/baYpHzYd/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-bonnyrigg-rose/xjXlGfm3/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.81</v>
+        <v>3.31</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.91</v>
+        <v>3.91</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:50</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.47</v>
+        <v>3.38</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:50</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.83</v>
+        <v>2.02</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.74</v>
+        <v>1.87</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:50</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-bonnyrigg-rose/xjXlGfm3/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-spartans/baYpHzYd/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>2.03</v>
+        <v>2.95</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,11 +5932,11 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.58</v>
+        <v>3.78</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>18/11/2023 15:58</t>
+          <t>18/11/2023 15:18</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.09</v>
+        <v>3.49</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:58</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.23</v>
+        <v>2.17</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.88</v>
+        <v>1.97</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>18/11/2023 15:58</t>
+          <t>18/11/2023 15:18</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-forfar-athletic/pGdSTDH2/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-stenhousemuir/r9BXQB1L/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.85</v>
+        <v>2.14</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.86</v>
+        <v>2.24</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>18/11/2023 15:32</t>
+          <t>18/11/2023 15:41</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.25</v>
+        <v>3.57</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>18/11/2023 15:32</t>
+          <t>18/11/2023 15:41</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.27</v>
+        <v>2.98</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.5</v>
+        <v>3.02</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>18/11/2023 15:32</t>
+          <t>18/11/2023 15:41</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-east-fife/O6eWSXW8/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-peterhead/xWAyQVGR/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>1.44</v>
+        <v>2.03</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,48 +6116,48 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.38</v>
+        <v>2.58</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
+          <t>18/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
           <t>18/11/2023 15:52</t>
         </is>
       </c>
-      <c r="N62" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="O62" t="inlineStr">
+      <c r="R62" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S62" t="inlineStr">
         <is>
           <t>16/11/2023 09:13</t>
         </is>
       </c>
-      <c r="P62" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>18/11/2023 15:52</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>16/11/2023 09:13</t>
-        </is>
-      </c>
       <c r="T62" t="n">
-        <v>7.89</v>
+        <v>2.88</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:58</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-elgin-city/4ICTRinF/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-forfar-athletic/pGdSTDH2/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>2.14</v>
+        <v>2.85</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.24</v>
+        <v>2.86</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>18/11/2023 15:41</t>
+          <t>18/11/2023 15:32</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.57</v>
+        <v>3.25</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>18/11/2023 15:41</t>
+          <t>18/11/2023 15:32</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.98</v>
+        <v>2.27</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.02</v>
+        <v>2.5</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>18/11/2023 15:41</t>
+          <t>18/11/2023 15:32</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-peterhead/xWAyQVGR/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-east-fife/O6eWSXW8/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Stenhousemuir</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>3</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.95</v>
+        <v>1.44</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.78</v>
+        <v>1.38</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>18/11/2023 15:18</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.33</v>
+        <v>4.29</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.49</v>
+        <v>4.86</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>18/11/2023 15:58</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.17</v>
+        <v>5.68</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.97</v>
+        <v>7.89</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>18/11/2023 15:18</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-stenhousemuir/r9BXQB1L/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-elgin-city/4ICTRinF/</t>
         </is>
       </c>
     </row>
@@ -6526,6 +6526,190 @@
       <c r="V66" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-east-fife/Ma434cli/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45262.66666666666</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-stranraer/z7jCJTge/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45262.66666666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-bonnyrigg-rose/rXgKH7O7/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-two_2023-2024.xlsx
+++ b/2023/scotland_league-two_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:52</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.38</v>
+        <v>3.76</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:52</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.33</v>
+        <v>3.32</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.72</v>
+        <v>3.05</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:52</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-clyde/nqDlPj9b/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-forfar-athletic/8hEpQWgh/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:52</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.37</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.76</v>
+        <v>3.38</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:52</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.32</v>
+        <v>3.33</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.05</v>
+        <v>3.72</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:52</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-forfar-athletic/8hEpQWgh/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-clyde/nqDlPj9b/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.83</v>
+        <v>2.46</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.66</v>
+        <v>2.26</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:33</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.33</v>
+        <v>3.18</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.08</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:33</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.93</v>
+        <v>2.63</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>4.74</v>
+        <v>3.04</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>12/08/2023 14:17</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-elgin-city/vLYjxKm1/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-east-fife/QyXbzbID/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.44</v>
+        <v>1.66</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>12/08/2023 15:48</t>
+          <t>12/08/2023 15:33</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.36</v>
+        <v>4.08</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>12/08/2023 15:48</t>
+          <t>12/08/2023 15:33</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.51</v>
+        <v>3.93</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.85</v>
+        <v>4.74</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>12/08/2023 15:48</t>
+          <t>12/08/2023 14:17</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-spartans/0UZnw0Yf/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-elgin-city/vLYjxKm1/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.28</v>
+        <v>2.01</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>12/08/2023 13:02</t>
+          <t>12/08/2023 15:48</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.31</v>
+        <v>3.36</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12/08/2023 14:04</t>
+          <t>12/08/2023 15:48</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.08</v>
+        <v>3.51</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.09</v>
+        <v>2.85</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12/08/2023 13:02</t>
+          <t>12/08/2023 15:48</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-bonnyrigg-rose/I5prvtJl/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-spartans/0UZnw0Yf/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.49</v>
+        <v>2.29</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12/08/2023 15:13</t>
+          <t>12/08/2023 13:02</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.39</v>
+        <v>3.31</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12/08/2023 15:13</t>
+          <t>12/08/2023 14:04</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.97</v>
+        <v>3.08</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.78</v>
+        <v>3.09</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>12/08/2023 15:13</t>
+          <t>12/08/2023 13:02</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-stenhousemuir/noYfyv37/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-bonnyrigg-rose/I5prvtJl/</t>
         </is>
       </c>
     </row>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.26</v>
+        <v>2.49</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:13</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.18</v>
+        <v>3.41</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:13</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.63</v>
+        <v>2.97</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.04</v>
+        <v>2.78</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:13</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-east-fife/QyXbzbID/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-stenhousemuir/noYfyv37/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.58</v>
+        <v>2.25</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.62</v>
+        <v>3.13</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.09</v>
+        <v>3.23</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.03</v>
+        <v>2.96</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>5.54</v>
+        <v>3.29</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-elgin-city/dKsKy8Em/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-stranraer/U9cuqjMD/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.31</v>
+        <v>1.73</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.27</v>
+        <v>3.62</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.52</v>
+        <v>4.09</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.77</v>
+        <v>4.03</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.93</v>
+        <v>5.54</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stenhousemuir/vqmFxlas/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-elgin-city/dKsKy8Em/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.93</v>
+        <v>2.31</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.12</v>
+        <v>2.32</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 14:24</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.65</v>
+        <v>3.52</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 14:24</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.5</v>
+        <v>2.77</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.16</v>
+        <v>2.93</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 14:24</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-peterhead/rD1qrAyK/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stenhousemuir/vqmFxlas/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.25</v>
+        <v>3.12</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 14:24</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.13</v>
+        <v>3.36</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.23</v>
+        <v>3.65</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 14:24</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.29</v>
+        <v>2.16</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 14:24</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-stranraer/U9cuqjMD/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-peterhead/rD1qrAyK/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.49</v>
+        <v>2.42</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.18</v>
+        <v>3.24</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.76</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-east-fife/zBtOzSTg/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-spartans/SIbVY5b6/</t>
         </is>
       </c>
     </row>
@@ -2137,19 +2137,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>2.12</v>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.46</v>
+        <v>2.69</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.17</v>
+        <v>3.29</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.03</v>
+        <v>3.19</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.17</v>
+        <v>3.07</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.11</v>
+        <v>2.69</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-bonnyrigg-rose/UXuSZoq0/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-dumbarton/AslzYPDC/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.42</v>
+        <v>2.49</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,48 +2252,48 @@
         </is>
       </c>
       <c r="L20" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>26/08/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>24/08/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>26/08/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>2.6</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:55</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>24/08/2023 09:13</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:55</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>24/08/2023 09:13</t>
-        </is>
-      </c>
       <c r="T20" t="n">
-        <v>2.63</v>
+        <v>2.76</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-spartans/SIbVY5b6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-east-fife/zBtOzSTg/</t>
         </is>
       </c>
     </row>
@@ -2321,19 +2321,19 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>2</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Dumbarton</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
       </c>
       <c r="J21" t="n">
         <v>2.12</v>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.69</v>
+        <v>2.46</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.29</v>
+        <v>3.17</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.19</v>
+        <v>3.03</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.07</v>
+        <v>3.17</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.69</v>
+        <v>3.11</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-dumbarton/AslzYPDC/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-bonnyrigg-rose/UXuSZoq0/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.52</v>
+        <v>3.37</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.95</v>
+        <v>3.57</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-elgin-city/xltMeT5J/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-stenhousemuir/UoL0lobg/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Stenhousemuir</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
       <c r="J23" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.37</v>
+        <v>3.41</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.59</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.26</v>
+        <v>3.52</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.57</v>
+        <v>4.05</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-stenhousemuir/UoL0lobg/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-east-fife/MLHhj7Tt/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.91</v>
+        <v>3.23</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.41</v>
+        <v>3.26</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.52</v>
+        <v>2.95</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.05</v>
+        <v>2.17</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-east-fife/MLHhj7Tt/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-forfar-athletic/GvuQfmLP/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.18</v>
+        <v>1.75</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3.23</v>
+        <v>1.74</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.26</v>
+        <v>3.52</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.48</v>
+        <v>3.58</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.95</v>
+        <v>4.08</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.17</v>
+        <v>4.95</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-forfar-athletic/GvuQfmLP/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-elgin-city/xltMeT5J/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>15/09/2023 04:13</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>16/09/2023 15:18</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.19</v>
+        <v>3.31</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>15/09/2023 04:13</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>16/09/2023 15:18</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.03</v>
+        <v>3.2</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>15/09/2023 04:13</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.88</v>
+        <v>3.36</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>16/09/2023 15:18</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-bonnyrigg-rose/M1Z9p3cI/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-stranraer/z5wEqNCO/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,63 +2973,63 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 04:13</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.83</v>
+        <v>2.43</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:18</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.12</v>
+        <v>3.19</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 04:13</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.23</v>
+        <v>3.35</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:18</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.73</v>
+        <v>3.03</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 04:13</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.54</v>
+        <v>2.88</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>16/09/2023 14:05</t>
+          <t>16/09/2023 15:18</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-spartans/Svz6oqrC/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-bonnyrigg-rose/M1Z9p3cI/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>14/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>16/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>14/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
         <v>3.23</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>16/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S29" t="inlineStr">
         <is>
           <t>14/09/2023 09:13</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:59</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>14/09/2023 09:13</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:59</t>
-        </is>
-      </c>
-      <c r="R29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>14/09/2023 09:13</t>
-        </is>
-      </c>
       <c r="T29" t="n">
-        <v>1.79</v>
+        <v>2.54</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:05</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-dumbarton/lly2nPS5/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-spartans/Svz6oqrC/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.9</v>
+        <v>3.23</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.88</v>
+        <v>4.32</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/09/2023 12:36</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.4</v>
+        <v>3.29</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.49</v>
+        <v>3.76</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.53</v>
+        <v>2.05</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.19</v>
+        <v>1.79</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-clyde/8xK4m5Da/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-dumbarton/lly2nPS5/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.13</v>
+        <v>1.88</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 12:36</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.44</v>
+        <v>3.49</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.2</v>
+        <v>3.53</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.36</v>
+        <v>4.19</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-stranraer/z5wEqNCO/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-clyde/8xK4m5Da/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.77</v>
+        <v>2.26</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.95</v>
+        <v>2.21</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/09/2023 03:28</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.5</v>
+        <v>3.19</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/09/2023 14:01</t>
+          <t>23/09/2023 14:15</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.99</v>
+        <v>2.89</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.9</v>
+        <v>3.28</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/09/2023 03:28</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-east-fife/U7dy1Osa/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-forfar-athletic/nq7W14Sh/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.24</v>
+        <v>1.95</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 03:28</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 14:01</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.19</v>
+        <v>3.99</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.13</v>
+        <v>3.9</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23/09/2023 15:13</t>
+          <t>23/09/2023 03:28</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-elgin-city/vJ3O3Qct/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-east-fife/U7dy1Osa/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.26</v>
+        <v>1.88</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.21</v>
+        <v>2.06</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.19</v>
+        <v>3.41</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.33</v>
+        <v>3.46</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/09/2023 14:15</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.89</v>
+        <v>3.62</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-forfar-athletic/nq7W14Sh/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-peterhead/8h8S2pDn/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,48 +3724,48 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>23/09/2023 15:00</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:00</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
           <t>23/09/2023 15:13</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>21/09/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:13</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>21/09/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:13</t>
-        </is>
-      </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-peterhead/8h8S2pDn/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-elgin-city/vJ3O3Qct/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>30/09/2023 14:05</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.43</v>
+        <v>3.72</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.84</v>
+        <v>3.95</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>30/09/2023 14:05</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.71</v>
+        <v>4.54</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4.36</v>
+        <v>5.42</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>30/09/2023 14:05</t>
+          <t>30/09/2023 15:05</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-stranraer/tr0u0rc5/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-clyde/U5HHtfdp/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.18</v>
+        <v>1.58</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.47</v>
+        <v>1.68</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.26</v>
+        <v>3.88</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.08</v>
+        <v>4.98</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.89</v>
+        <v>4.93</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-forfar-athletic/z5aqa2CB/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-elgin-city/EebmbMRH/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.58</v>
+        <v>1.97</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.85</v>
+        <v>3.33</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.88</v>
+        <v>3.42</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.98</v>
+        <v>3.4</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.93</v>
+        <v>3.5</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-elgin-city/EebmbMRH/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-bonnyrigg-rose/8dGLuEBj/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 14:05</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.33</v>
+        <v>3.43</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.42</v>
+        <v>3.84</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 14:05</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.4</v>
+        <v>3.71</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.5</v>
+        <v>4.36</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 14:05</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-bonnyrigg-rose/8dGLuEBj/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-stranraer/tr0u0rc5/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.63</v>
+        <v>2.18</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.61</v>
+        <v>2.47</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.72</v>
+        <v>3.15</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.95</v>
+        <v>3.26</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.54</v>
+        <v>3.08</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>5.42</v>
+        <v>2.89</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>30/09/2023 15:05</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-clyde/U5HHtfdp/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-forfar-athletic/z5aqa2CB/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>2</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>East Fife</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
       <c r="J49" t="n">
-        <v>1.85</v>
+        <v>3.31</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.12</v>
+        <v>3.91</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>04/11/2023 15:53</t>
+          <t>04/11/2023 15:50</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.45</v>
+        <v>3.38</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.53</v>
+        <v>3.74</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>04/11/2023 15:53</t>
+          <t>04/11/2023 15:50</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.7</v>
+        <v>2.02</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.3</v>
+        <v>1.87</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>04/11/2023 15:53</t>
+          <t>04/11/2023 15:50</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-east-fife/rmzcEYHF/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-spartans/baYpHzYd/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.6</v>
+        <v>3.47</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.96</v>
+        <v>3.83</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.92</v>
+        <v>3.74</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-elgin-city/QBP1DhXL/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-bonnyrigg-rose/xjXlGfm3/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1.81</v>
+        <v>2.59</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.91</v>
+        <v>2.73</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.47</v>
+        <v>3.16</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.75</v>
+        <v>3.29</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.83</v>
+        <v>2.51</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.74</v>
+        <v>2.58</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-bonnyrigg-rose/xjXlGfm3/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-stenhousemuir/WCWhFE29/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3.31</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.91</v>
+        <v>2.12</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>04/11/2023 15:50</t>
+          <t>04/11/2023 15:53</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.38</v>
+        <v>3.45</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.74</v>
+        <v>3.53</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04/11/2023 15:50</t>
+          <t>04/11/2023 15:53</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.02</v>
+        <v>3.7</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.87</v>
+        <v>3.3</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>04/11/2023 15:50</t>
+          <t>04/11/2023 15:53</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-spartans/baYpHzYd/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-east-fife/rmzcEYHF/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Stenhousemuir</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
       <c r="J53" t="n">
-        <v>2.59</v>
+        <v>1.75</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.73</v>
+        <v>1.89</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.16</v>
+        <v>3.6</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.29</v>
+        <v>3.65</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.51</v>
+        <v>3.96</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.58</v>
+        <v>3.92</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-stenhousemuir/WCWhFE29/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-elgin-city/QBP1DhXL/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.86</v>
+        <v>1.89</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.24</v>
+        <v>3.59</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.62</v>
+        <v>3.64</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.25</v>
+        <v>4.08</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.32</v>
+        <v>3.92</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:55</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-dumbarton/42O5CCnS/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-clyde/zoFy7jAk/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>2</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Bonnyrigg Rose</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
       <c r="J55" t="n">
-        <v>3.42</v>
+        <v>1.63</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3.31</v>
+        <v>1.7</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:35</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.32</v>
+        <v>3.76</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.48</v>
+        <v>3.95</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.01</v>
+        <v>4.48</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.14</v>
+        <v>4.65</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-bonnyrigg-rose/dfGX7Wfq/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-stranraer/I94t6APe/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.73</v>
+        <v>2.88</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.89</v>
+        <v>2.86</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.59</v>
+        <v>3.24</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.64</v>
+        <v>3.62</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.08</v>
+        <v>2.25</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.92</v>
+        <v>2.32</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>11/11/2023 15:55</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-clyde/zoFy7jAk/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-dumbarton/42O5CCnS/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.63</v>
+        <v>3.42</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.7</v>
+        <v>3.31</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>11/11/2023 15:35</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.76</v>
+        <v>3.32</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.95</v>
+        <v>3.48</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.48</v>
+        <v>2.01</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.65</v>
+        <v>2.14</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-stranraer/I94t6APe/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-bonnyrigg-rose/dfGX7Wfq/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.95</v>
+        <v>2.03</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,11 +5932,11 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.78</v>
+        <v>2.58</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>18/11/2023 15:18</t>
+          <t>18/11/2023 15:58</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -5948,32 +5948,32 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.49</v>
+        <v>3.09</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
+          <t>18/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
           <t>18/11/2023 15:58</t>
         </is>
       </c>
-      <c r="R60" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>16/11/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T60" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>18/11/2023 15:18</t>
-        </is>
-      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-stenhousemuir/r9BXQB1L/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-forfar-athletic/pGdSTDH2/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>2.14</v>
+        <v>2.85</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.24</v>
+        <v>2.86</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>18/11/2023 15:41</t>
+          <t>18/11/2023 15:32</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.57</v>
+        <v>3.25</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>18/11/2023 15:41</t>
+          <t>18/11/2023 15:32</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.98</v>
+        <v>2.27</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.02</v>
+        <v>2.5</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>18/11/2023 15:41</t>
+          <t>18/11/2023 15:32</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-peterhead/xWAyQVGR/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-east-fife/O6eWSXW8/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Forfar Athletic</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
       <c r="J62" t="n">
-        <v>2.03</v>
+        <v>1.44</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.58</v>
+        <v>1.38</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>18/11/2023 15:58</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.33</v>
+        <v>4.29</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.09</v>
+        <v>4.86</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.23</v>
+        <v>5.68</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.88</v>
+        <v>7.89</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>18/11/2023 15:58</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-forfar-athletic/pGdSTDH2/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-elgin-city/4ICTRinF/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.85</v>
+        <v>2.14</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.86</v>
+        <v>2.24</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>18/11/2023 15:32</t>
+          <t>18/11/2023 15:41</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.25</v>
+        <v>3.57</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>18/11/2023 15:32</t>
+          <t>18/11/2023 15:41</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.27</v>
+        <v>2.98</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.5</v>
+        <v>3.02</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>18/11/2023 15:32</t>
+          <t>18/11/2023 15:41</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-east-fife/O6eWSXW8/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-peterhead/xWAyQVGR/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>1.44</v>
+        <v>2.95</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.38</v>
+        <v>3.78</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:18</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.29</v>
+        <v>3.33</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.86</v>
+        <v>3.49</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:58</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>5.68</v>
+        <v>2.17</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>7.89</v>
+        <v>1.97</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:18</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-elgin-city/4ICTRinF/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-stenhousemuir/r9BXQB1L/</t>
         </is>
       </c>
     </row>
@@ -6710,6 +6710,926 @@
       <c r="V68" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-bonnyrigg-rose/rXgKH7O7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-peterhead/pxY2ti18/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-stranraer/rNj6uBGE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-stenhousemuir/xpjAvVVK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:38</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-elgin-city/GzkEwkoR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-forfar-athletic/dUWtZ8gr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:31</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:31</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:31</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-clyde/roZhW6w1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-east-fife/Q9OcVQh7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-spartans/zLVpYS8l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>4</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-dumbarton/UsVlXnOf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-bonnyrigg-rose/40N1Up8D/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-two_2023-2024.xlsx
+++ b/2023/scotland_league-two_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,14 +7205,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,48 +7220,48 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.54</v>
+        <v>1.92</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>16/12/2023 15:31</t>
+          <t>16/12/2023 15:56</t>
         </is>
       </c>
       <c r="N74" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
         <v>4.01</v>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="S74" t="inlineStr">
         <is>
           <t>14/12/2023 09:13</t>
         </is>
       </c>
-      <c r="P74" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>16/12/2023 15:31</t>
-        </is>
-      </c>
-      <c r="R74" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>14/12/2023 09:13</t>
-        </is>
-      </c>
       <c r="T74" t="n">
-        <v>5.75</v>
+        <v>4.07</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>16/12/2023 15:31</t>
+          <t>16/12/2023 15:58</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-clyde/roZhW6w1/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-east-fife/Q9OcVQh7/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>16/12/2023 15:56</t>
+          <t>16/12/2023 15:31</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.53</v>
+        <v>4.01</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.46</v>
+        <v>4.29</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>16/12/2023 15:58</t>
+          <t>16/12/2023 15:31</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.01</v>
+        <v>5.12</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.07</v>
+        <v>5.75</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>16/12/2023 15:58</t>
+          <t>16/12/2023 15:31</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-east-fife/Q9OcVQh7/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-clyde/roZhW6w1/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>3.66</v>
+        <v>2.34</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4.68</v>
+        <v>2.67</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>16/12/2023 15:53</t>
+          <t>16/12/2023 15:59</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.42</v>
+        <v>3.16</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.71</v>
+        <v>3.26</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>16/12/2023 15:57</t>
+          <t>16/12/2023 15:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.89</v>
+        <v>2.86</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.74</v>
+        <v>2.66</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>16/12/2023 15:52</t>
+          <t>16/12/2023 15:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-spartans/zLVpYS8l/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-bonnyrigg-rose/40N1Up8D/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>3.13</v>
+        <v>3.66</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,48 +7496,48 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.01</v>
+        <v>4.68</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>16/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
           <t>16/12/2023 15:57</t>
         </is>
       </c>
-      <c r="N77" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O77" t="inlineStr">
+      <c r="R77" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S77" t="inlineStr">
         <is>
           <t>14/12/2023 09:13</t>
         </is>
       </c>
-      <c r="P77" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>16/12/2023 15:57</t>
-        </is>
-      </c>
-      <c r="R77" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>14/12/2023 09:13</t>
-        </is>
-      </c>
       <c r="T77" t="n">
-        <v>2.57</v>
+        <v>1.74</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>16/12/2023 15:57</t>
+          <t>16/12/2023 15:52</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-dumbarton/UsVlXnOf/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-spartans/zLVpYS8l/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,163 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-dumbarton/UsVlXnOf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45282.85416666666</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>3</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Bonnyrigg Rose</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>14/12/2023 09:13</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>16/12/2023 15:59</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>14/12/2023 09:13</t>
-        </is>
-      </c>
-      <c r="P78" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>16/12/2023 15:59</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>14/12/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>16/12/2023 15:59</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-bonnyrigg-rose/40N1Up8D/</t>
+      <c r="J79" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:21</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:20</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:21</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-bonnyrigg-rose/8WYCy2Ft/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-two_2023-2024.xlsx
+++ b/2023/scotland_league-two_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.25</v>
+        <v>1.58</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.13</v>
+        <v>3.62</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.23</v>
+        <v>4.09</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.96</v>
+        <v>4.03</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.29</v>
+        <v>5.54</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-stranraer/U9cuqjMD/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-elgin-city/dKsKy8Em/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Elgin City</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.73</v>
+        <v>2.31</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.58</v>
+        <v>2.32</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.62</v>
+        <v>3.27</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.09</v>
+        <v>3.52</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.03</v>
+        <v>2.77</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>5.54</v>
+        <v>2.93</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-elgin-city/dKsKy8Em/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stenhousemuir/vqmFxlas/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.31</v>
+        <v>1.93</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.32</v>
+        <v>3.12</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 14:24</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.52</v>
+        <v>3.65</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 14:24</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.77</v>
+        <v>3.5</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.93</v>
+        <v>2.16</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 14:24</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-stenhousemuir/vqmFxlas/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-peterhead/rD1qrAyK/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.12</v>
+        <v>2.25</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 14:24</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.36</v>
+        <v>3.13</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.65</v>
+        <v>3.23</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 14:24</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.5</v>
+        <v>2.96</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.16</v>
+        <v>3.29</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 14:24</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-peterhead/rD1qrAyK/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-stranraer/U9cuqjMD/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.65</v>
+        <v>2.49</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.79</v>
+        <v>2.44</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:37</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.75</v>
+        <v>3.18</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.76</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.52</v>
+        <v>2.6</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.25</v>
+        <v>2.76</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:37</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-clyde/lYnvXqTI/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-east-fife/zBtOzSTg/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.42</v>
+        <v>3.03</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.64</v>
+        <v>3.17</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>3.11</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-spartans/SIbVY5b6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-bonnyrigg-rose/UXuSZoq0/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.29</v>
+        <v>3.24</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.19</v>
+        <v>3.42</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.07</v>
+        <v>2.64</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.69</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-dumbarton/AslzYPDC/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-spartans/SIbVY5b6/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.49</v>
+        <v>2.12</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.44</v>
+        <v>2.69</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>3.19</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.6</v>
+        <v>3.07</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.76</v>
+        <v>2.69</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-east-fife/zBtOzSTg/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-dumbarton/AslzYPDC/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.12</v>
+        <v>1.65</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.46</v>
+        <v>1.79</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:37</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.17</v>
+        <v>3.75</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.03</v>
+        <v>3.76</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.17</v>
+        <v>4.52</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.11</v>
+        <v>4.25</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:37</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-bonnyrigg-rose/UXuSZoq0/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-clyde/lYnvXqTI/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Stenhousemuir</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
       <c r="J22" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.37</v>
+        <v>3.41</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.59</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.26</v>
+        <v>3.52</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.57</v>
+        <v>4.05</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-stenhousemuir/UoL0lobg/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-east-fife/MLHhj7Tt/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.91</v>
+        <v>3.23</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.41</v>
+        <v>3.26</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.52</v>
+        <v>2.95</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.05</v>
+        <v>2.17</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-east-fife/MLHhj7Tt/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-forfar-athletic/GvuQfmLP/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.18</v>
+        <v>1.75</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.23</v>
+        <v>1.74</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.26</v>
+        <v>3.52</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.48</v>
+        <v>3.58</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.95</v>
+        <v>4.08</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>31/08/2023 09:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.17</v>
+        <v>4.95</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-forfar-athletic/GvuQfmLP/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-elgin-city/xltMeT5J/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.52</v>
+        <v>3.37</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>31/08/2023 09:13</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.95</v>
+        <v>3.57</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-elgin-city/xltMeT5J/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-stenhousemuir/UoL0lobg/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 14:05</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.72</v>
+        <v>3.43</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.95</v>
+        <v>3.84</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 14:05</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.54</v>
+        <v>3.71</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.42</v>
+        <v>4.36</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>30/09/2023 15:05</t>
+          <t>30/09/2023 14:05</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-clyde/U5HHtfdp/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-stranraer/tr0u0rc5/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.58</v>
+        <v>2.18</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.68</v>
+        <v>2.47</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.88</v>
+        <v>3.26</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.98</v>
+        <v>3.08</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.93</v>
+        <v>2.89</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-elgin-city/EebmbMRH/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-forfar-athletic/z5aqa2CB/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.97</v>
+        <v>1.58</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.08</v>
+        <v>1.68</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.33</v>
+        <v>3.85</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.42</v>
+        <v>3.88</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.4</v>
+        <v>4.98</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.5</v>
+        <v>4.93</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/09/2023 14:01</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-bonnyrigg-rose/8dGLuEBj/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-elgin-city/EebmbMRH/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>30/09/2023 14:05</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.43</v>
+        <v>3.33</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.84</v>
+        <v>3.42</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>30/09/2023 14:05</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.71</v>
+        <v>3.4</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.36</v>
+        <v>3.5</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>30/09/2023 14:05</t>
+          <t>30/09/2023 14:01</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-stranraer/tr0u0rc5/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-bonnyrigg-rose/8dGLuEBj/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.18</v>
+        <v>1.63</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.47</v>
+        <v>1.61</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.15</v>
+        <v>3.72</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.26</v>
+        <v>3.95</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.08</v>
+        <v>4.54</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.89</v>
+        <v>5.42</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:05</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-forfar-athletic/z5aqa2CB/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-clyde/U5HHtfdp/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>2.44</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.66</v>
+        <v>2.66</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>07/10/2023 15:05</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
           <t>07/10/2023 15:04</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="R42" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>05/10/2023 08:12</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:04</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:12</t>
-        </is>
-      </c>
       <c r="T42" t="n">
-        <v>1.97</v>
+        <v>2.62</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:04</t>
+          <t>07/10/2023 15:05</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-dumbarton/z3873H3c/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-peterhead/dIdG1eY9/</t>
         </is>
       </c>
     </row>
@@ -4345,19 +4345,19 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
         <v>2.44</v>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:05</t>
+          <t>07/10/2023 15:27</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.02</v>
+        <v>3.11</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.77</v>
+        <v>2.71</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:05</t>
+          <t>07/10/2023 15:27</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-peterhead/dIdG1eY9/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-spartans/jgBJ0FmG/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>2.44</v>
+        <v>3.4</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.67</v>
+        <v>3.66</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:04</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.11</v>
+        <v>3.3</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.41</v>
+        <v>3.61</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.71</v>
+        <v>1.98</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.57</v>
+        <v>1.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:04</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-spartans/jgBJ0FmG/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-dumbarton/z3873H3c/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.89</v>
+        <v>2.37</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.64</v>
+        <v>3.61</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.08</v>
+        <v>3.04</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.92</v>
+        <v>2.79</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>11/11/2023 15:55</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-clyde/zoFy7jAk/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-spartans/WC8p5Uv2/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.37</v>
+        <v>1.89</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.33</v>
+        <v>3.59</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.61</v>
+        <v>3.64</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.04</v>
+        <v>4.08</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.79</v>
+        <v>3.92</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:55</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-spartans/WC8p5Uv2/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-clyde/zoFy7jAk/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>2.03</v>
+        <v>2.95</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,11 +5932,11 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.58</v>
+        <v>3.78</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>18/11/2023 15:58</t>
+          <t>18/11/2023 15:18</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.09</v>
+        <v>3.49</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:58</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.23</v>
+        <v>2.17</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.88</v>
+        <v>1.97</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>18/11/2023 15:58</t>
+          <t>18/11/2023 15:18</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-forfar-athletic/pGdSTDH2/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-stenhousemuir/r9BXQB1L/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.85</v>
+        <v>2.03</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>18/11/2023 15:32</t>
+          <t>18/11/2023 15:58</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.25</v>
+        <v>3.09</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>18/11/2023 15:32</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.27</v>
+        <v>3.23</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>18/11/2023 15:32</t>
+          <t>18/11/2023 15:58</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-east-fife/O6eWSXW8/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-forfar-athletic/pGdSTDH2/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>1.44</v>
+        <v>2.85</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.38</v>
+        <v>2.86</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:32</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.29</v>
+        <v>3.24</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.86</v>
+        <v>3.25</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:32</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>5.68</v>
+        <v>2.27</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>7.89</v>
+        <v>2.5</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:32</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-elgin-city/4ICTRinF/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-east-fife/O6eWSXW8/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Stenhousemuir</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>3</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.95</v>
+        <v>1.44</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.78</v>
+        <v>1.38</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>18/11/2023 15:18</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.33</v>
+        <v>4.29</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.49</v>
+        <v>4.86</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>18/11/2023 15:58</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.17</v>
+        <v>5.68</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.97</v>
+        <v>7.89</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>18/11/2023 15:18</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-stenhousemuir/r9BXQB1L/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-elgin-city/4ICTRinF/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>2.79</v>
+        <v>2.05</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>19/10/2023 09:13</t>
+          <t>05/10/2023 09:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.99</v>
+        <v>2.65</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>21/11/2023 20:39</t>
+          <t>21/11/2023 17:48</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.17</v>
+        <v>3.26</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>19/10/2023 09:13</t>
+          <t>05/10/2023 09:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.19</v>
+        <v>3.07</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>21/11/2023 20:36</t>
+          <t>21/11/2023 18:47</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.34</v>
+        <v>3.26</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>19/10/2023 09:13</t>
+          <t>05/10/2023 09:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>21/11/2023 20:39</t>
+          <t>21/11/2023 14:40</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-forfar-athletic/lUjffDQq/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-east-fife/Ma434cli/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.05</v>
+        <v>2.79</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>05/10/2023 09:12</t>
+          <t>19/10/2023 09:13</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.65</v>
+        <v>2.99</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>21/11/2023 17:48</t>
+          <t>21/11/2023 20:39</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.26</v>
+        <v>3.17</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>05/10/2023 09:12</t>
+          <t>19/10/2023 09:13</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.07</v>
+        <v>3.19</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>21/11/2023 18:47</t>
+          <t>21/11/2023 20:36</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.26</v>
+        <v>2.34</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>05/10/2023 09:12</t>
+          <t>19/10/2023 09:13</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>21/11/2023 14:40</t>
+          <t>21/11/2023 20:39</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-east-fife/Ma434cli/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-forfar-athletic/lUjffDQq/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>1.78</v>
+        <v>3.66</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.92</v>
+        <v>4.68</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>16/12/2023 15:56</t>
+          <t>16/12/2023 15:53</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.53</v>
+        <v>3.42</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.46</v>
+        <v>3.71</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>16/12/2023 15:58</t>
+          <t>16/12/2023 15:57</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.01</v>
+        <v>1.89</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.07</v>
+        <v>1.74</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>16/12/2023 15:58</t>
+          <t>16/12/2023 15:52</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-east-fife/Q9OcVQh7/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-spartans/zLVpYS8l/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>1.55</v>
+        <v>3.13</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.54</v>
+        <v>3.01</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>16/12/2023 15:31</t>
+          <t>16/12/2023 15:57</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.01</v>
+        <v>3.17</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.29</v>
+        <v>2.98</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>16/12/2023 15:31</t>
+          <t>16/12/2023 15:57</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>5.12</v>
+        <v>2.19</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.75</v>
+        <v>2.57</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>16/12/2023 15:31</t>
+          <t>16/12/2023 15:57</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-clyde/roZhW6w1/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-dumbarton/UsVlXnOf/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.34</v>
+        <v>1.55</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.67</v>
+        <v>1.54</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>16/12/2023 15:59</t>
+          <t>16/12/2023 15:31</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.16</v>
+        <v>4.01</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.26</v>
+        <v>4.29</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>16/12/2023 15:59</t>
+          <t>16/12/2023 15:31</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.86</v>
+        <v>5.12</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.66</v>
+        <v>5.75</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>16/12/2023 15:59</t>
+          <t>16/12/2023 15:31</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-bonnyrigg-rose/40N1Up8D/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-clyde/roZhW6w1/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>3.66</v>
+        <v>1.78</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4.68</v>
+        <v>1.92</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>16/12/2023 15:53</t>
+          <t>16/12/2023 15:56</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.42</v>
+        <v>3.53</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.71</v>
+        <v>3.46</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>16/12/2023 15:57</t>
+          <t>16/12/2023 15:58</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.89</v>
+        <v>4.01</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.74</v>
+        <v>4.07</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>16/12/2023 15:52</t>
+          <t>16/12/2023 15:58</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-spartans/zLVpYS8l/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-east-fife/Q9OcVQh7/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>3.13</v>
+        <v>2.34</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.01</v>
+        <v>2.67</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>16/12/2023 15:57</t>
+          <t>16/12/2023 15:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2.98</v>
+        <v>3.26</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>16/12/2023 15:57</t>
+          <t>16/12/2023 15:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.19</v>
+        <v>2.86</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>16/12/2023 15:57</t>
+          <t>16/12/2023 15:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-dumbarton/UsVlXnOf/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-bonnyrigg-rose/40N1Up8D/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,650 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-bonnyrigg-rose/8WYCy2Ft/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45283.66666666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-forfar-athletic/jeOHzMUn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45283.66666666666</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>4</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-clyde/W6BqgUpE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45283.66666666666</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>23/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:00</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>23/12/2023 14:00</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-stranraer/bLRPYaaa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45283.66666666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-elgin-city/4bSLZupg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45290.66666666666</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:47</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:47</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-peterhead/YwKxWcqI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45290.66666666666</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-stenhousemuir/fmLYWwUB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45290.66666666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-east-fife/S0JtVHbO/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-two_2023-2024.xlsx
+++ b/2023/scotland_league-two_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.12</v>
+        <v>2.25</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 14:24</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.36</v>
+        <v>3.13</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.65</v>
+        <v>3.23</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 14:24</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.5</v>
+        <v>2.96</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.16</v>
+        <v>3.29</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 14:24</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-peterhead/rD1qrAyK/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-stranraer/U9cuqjMD/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.25</v>
+        <v>3.12</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 14:24</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.13</v>
+        <v>3.36</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.23</v>
+        <v>3.65</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 14:24</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.29</v>
+        <v>2.16</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 14:24</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-stranraer/U9cuqjMD/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-peterhead/rD1qrAyK/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>2.44</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.66</v>
+        <v>3.66</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:05</t>
+          <t>07/10/2023 15:04</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.02</v>
+        <v>3.3</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.34</v>
+        <v>3.61</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.77</v>
+        <v>1.98</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.62</v>
+        <v>1.97</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:05</t>
+          <t>07/10/2023 15:04</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-peterhead/dIdG1eY9/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-dumbarton/z3873H3c/</t>
         </is>
       </c>
     </row>
@@ -4345,19 +4345,19 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>3</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Spartans</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
       </c>
       <c r="J43" t="n">
         <v>2.44</v>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:05</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.11</v>
+        <v>3.02</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.71</v>
+        <v>2.77</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:05</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-spartans/jgBJ0FmG/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-peterhead/dIdG1eY9/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>3.4</v>
+        <v>2.44</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,48 +4460,48 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.66</v>
+        <v>2.67</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>07/10/2023 15:04</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="R44" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>05/10/2023 08:12</t>
         </is>
       </c>
-      <c r="P44" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:04</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:12</t>
-        </is>
-      </c>
       <c r="T44" t="n">
-        <v>1.97</v>
+        <v>2.57</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/10/2023 15:04</t>
+          <t>07/10/2023 15:27</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-dumbarton/z3873H3c/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-spartans/jgBJ0FmG/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>20/10/2023 22:20</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:04</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
         <v>3</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Clyde</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="K45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>19/10/2023 08:13</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:49</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:49</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
       <c r="T45" t="n">
-        <v>4.43</v>
+        <v>2.65</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>20/10/2023 22:20</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-clyde/UqANaZ2M/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-dumbarton/Msk2hied/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>2</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Dumbarton</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
       <c r="J47" t="n">
-        <v>2.16</v>
+        <v>1.66</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.53</v>
+        <v>1.78</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>20/10/2023 22:20</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.28</v>
+        <v>3.65</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.45</v>
+        <v>3.72</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>21/10/2023 14:04</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>4.46</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.65</v>
+        <v>4.43</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>20/10/2023 22:20</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-dumbarton/Msk2hied/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-clyde/UqANaZ2M/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.12</v>
+        <v>1.63</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.37</v>
+        <v>1.7</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:35</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.33</v>
+        <v>3.76</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.61</v>
+        <v>3.95</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.04</v>
+        <v>4.48</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.79</v>
+        <v>4.65</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-spartans/WC8p5Uv2/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-stranraer/I94t6APe/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>11/11/2023 15:35</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.76</v>
+        <v>3.59</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.95</v>
+        <v>3.64</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.48</v>
+        <v>4.08</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.65</v>
+        <v>3.92</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:55</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-stranraer/I94t6APe/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-clyde/zoFy7jAk/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.88</v>
+        <v>2.12</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.86</v>
+        <v>2.37</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.25</v>
+        <v>3.04</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.32</v>
+        <v>2.79</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-dumbarton/42O5CCnS/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-spartans/WC8p5Uv2/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>3.42</v>
+        <v>2.88</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3.31</v>
+        <v>2.86</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.48</v>
+        <v>3.62</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.01</v>
+        <v>2.25</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-bonnyrigg-rose/dfGX7Wfq/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-dumbarton/42O5CCnS/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.73</v>
+        <v>3.42</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.89</v>
+        <v>3.31</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.59</v>
+        <v>3.32</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.64</v>
+        <v>3.48</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.08</v>
+        <v>2.01</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.92</v>
+        <v>2.14</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>11/11/2023 15:55</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-clyde/zoFy7jAk/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-bonnyrigg-rose/dfGX7Wfq/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.95</v>
+        <v>2.03</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,11 +5932,11 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.78</v>
+        <v>2.58</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>18/11/2023 15:18</t>
+          <t>18/11/2023 15:58</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -5948,32 +5948,32 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.49</v>
+        <v>3.09</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
+          <t>18/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
           <t>18/11/2023 15:58</t>
         </is>
       </c>
-      <c r="R60" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>16/11/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T60" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>18/11/2023 15:18</t>
-        </is>
-      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-stenhousemuir/r9BXQB1L/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-forfar-athletic/pGdSTDH2/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>2.03</v>
+        <v>2.85</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.58</v>
+        <v>2.86</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>18/11/2023 15:58</t>
+          <t>18/11/2023 15:32</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.09</v>
+        <v>3.25</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:32</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.23</v>
+        <v>2.27</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>18/11/2023 15:58</t>
+          <t>18/11/2023 15:32</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-forfar-athletic/pGdSTDH2/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-east-fife/O6eWSXW8/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>East Fife</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>4</v>
-      </c>
       <c r="J62" t="n">
-        <v>2.85</v>
+        <v>1.44</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.86</v>
+        <v>1.38</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>18/11/2023 15:32</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.24</v>
+        <v>4.29</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.25</v>
+        <v>4.86</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>18/11/2023 15:32</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.27</v>
+        <v>5.68</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.5</v>
+        <v>7.89</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>18/11/2023 15:32</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-east-fife/O6eWSXW8/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-elgin-city/4ICTRinF/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>1.44</v>
+        <v>2.95</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.38</v>
+        <v>3.78</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:18</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.29</v>
+        <v>3.33</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.86</v>
+        <v>3.49</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:58</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>5.68</v>
+        <v>2.17</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>7.89</v>
+        <v>1.97</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:18</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-elgin-city/4ICTRinF/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stranraer-stenhousemuir/r9BXQB1L/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.05</v>
+        <v>2.79</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>05/10/2023 09:12</t>
+          <t>19/10/2023 09:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.65</v>
+        <v>2.99</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>21/11/2023 17:48</t>
+          <t>21/11/2023 20:39</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.26</v>
+        <v>3.17</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>05/10/2023 09:12</t>
+          <t>19/10/2023 09:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.07</v>
+        <v>3.19</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>21/11/2023 18:47</t>
+          <t>21/11/2023 20:36</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.26</v>
+        <v>2.34</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>05/10/2023 09:12</t>
+          <t>19/10/2023 09:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>21/11/2023 14:40</t>
+          <t>21/11/2023 20:39</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-east-fife/Ma434cli/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-forfar-athletic/lUjffDQq/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.79</v>
+        <v>2.05</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>19/10/2023 09:13</t>
+          <t>05/10/2023 09:12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.99</v>
+        <v>2.65</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>21/11/2023 20:39</t>
+          <t>21/11/2023 17:48</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.17</v>
+        <v>3.26</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>19/10/2023 09:13</t>
+          <t>05/10/2023 09:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.19</v>
+        <v>3.07</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>21/11/2023 20:36</t>
+          <t>21/11/2023 18:47</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.34</v>
+        <v>3.26</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>19/10/2023 09:13</t>
+          <t>05/10/2023 09:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>21/11/2023 20:39</t>
+          <t>21/11/2023 14:40</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-forfar-athletic/lUjffDQq/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-east-fife/Ma434cli/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bonnyrigg Rose</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.71</v>
+        <v>1.99</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.99</v>
+        <v>2.15</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>09/12/2023 15:59</t>
+          <t>09/12/2023 15:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.17</v>
+        <v>3.36</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.43</v>
+        <v>3.24</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>09/12/2023 15:59</t>
+          <t>09/12/2023 15:56</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.44</v>
+        <v>3.41</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.32</v>
+        <v>3.53</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>09/12/2023 15:59</t>
+          <t>09/12/2023 15:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-peterhead/pxY2ti18/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-forfar-athletic/dUWtZ8gr/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>East Fife</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.7</v>
+        <v>1.82</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.57</v>
+        <v>1.76</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>09/12/2023 15:28</t>
+          <t>09/12/2023 15:38</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.23</v>
+        <v>3.49</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.36</v>
+        <v>3.77</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>09/12/2023 15:28</t>
+          <t>09/12/2023 15:49</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.43</v>
+        <v>3.9</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.7</v>
+        <v>4.45</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>09/12/2023 15:28</t>
+          <t>09/12/2023 15:49</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-stranraer/rNj6uBGE/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-elgin-city/GzkEwkoR/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.21</v>
+        <v>2.71</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.4</v>
+        <v>2.99</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>09/12/2023 15:58</t>
+          <t>09/12/2023 15:59</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.18</v>
+        <v>3.43</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>09/12/2023 15:54</t>
+          <t>09/12/2023 15:59</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.01</v>
+        <v>2.44</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.06</v>
+        <v>2.32</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>09/12/2023 15:58</t>
+          <t>09/12/2023 15:59</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-stenhousemuir/xpjAvVVK/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/bonnyrigg-rose-peterhead/pxY2ti18/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>East Fife</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>1.82</v>
+        <v>2.7</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.76</v>
+        <v>2.57</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>09/12/2023 15:38</t>
+          <t>09/12/2023 15:28</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.49</v>
+        <v>3.23</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.77</v>
+        <v>3.36</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>09/12/2023 15:49</t>
+          <t>09/12/2023 15:28</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.9</v>
+        <v>2.43</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.45</v>
+        <v>2.7</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>09/12/2023 15:49</t>
+          <t>09/12/2023 15:28</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/east-fife-elgin-city/GzkEwkoR/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-stranraer/rNj6uBGE/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>1</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Forfar Athletic</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
       <c r="J73" t="n">
-        <v>1.99</v>
+        <v>2.21</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>09/12/2023 15:56</t>
+          <t>09/12/2023 15:58</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.36</v>
+        <v>3.24</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.24</v>
+        <v>3.18</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>09/12/2023 15:56</t>
+          <t>09/12/2023 15:54</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.41</v>
+        <v>3.01</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.53</v>
+        <v>3.06</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>09/12/2023 15:56</t>
+          <t>09/12/2023 15:58</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-forfar-athletic/dUWtZ8gr/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-stenhousemuir/xpjAvVVK/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Forfar Athletic</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1.85</v>
+        <v>1.36</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.02</v>
+        <v>1.33</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>23/12/2023 15:57</t>
+          <t>23/12/2023 15:55</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.36</v>
+        <v>4.54</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.28</v>
+        <v>4.85</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>23/12/2023 15:57</t>
+          <t>23/12/2023 15:56</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.91</v>
+        <v>7.32</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.87</v>
+        <v>10.25</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>23/12/2023 15:57</t>
+          <t>23/12/2023 15:56</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-forfar-athletic/jeOHzMUn/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-elgin-city/4bSLZupg/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Spartans</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Stranraer</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>23/12/2023 15:53</t>
+          <t>23/12/2023 08:12</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4.2</v>
+        <v>3.58</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>4.22</v>
+        <v>3.83</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>23/12/2023 15:53</t>
+          <t>23/12/2023 14:00</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>5.65</v>
+        <v>4.17</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>6.01</v>
+        <v>4.61</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>23/12/2023 15:53</t>
+          <t>23/12/2023 14:00</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-clyde/W6BqgUpE/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-stranraer/bLRPYaaa/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>23/12/2023 08:12</t>
+          <t>23/12/2023 15:57</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.58</v>
+        <v>3.36</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.83</v>
+        <v>3.28</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>23/12/2023 14:00</t>
+          <t>23/12/2023 15:57</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.17</v>
+        <v>3.91</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.61</v>
+        <v>3.87</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>23/12/2023 14:00</t>
+          <t>23/12/2023 15:57</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/spartans-stranraer/bLRPYaaa/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-forfar-athletic/jeOHzMUn/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J83" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>23/12/2023 15:55</t>
+          <t>23/12/2023 15:53</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>4.54</v>
+        <v>4.2</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.85</v>
+        <v>4.22</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>23/12/2023 15:56</t>
+          <t>23/12/2023 15:53</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>7.32</v>
+        <v>5.65</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>10.25</v>
+        <v>6.01</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>23/12/2023 15:56</t>
+          <t>23/12/2023 15:53</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-elgin-city/4bSLZupg/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-clyde/W6BqgUpE/</t>
         </is>
       </c>
     </row>
@@ -8366,6 +8366,466 @@
       <c r="V86" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-two/forfar-athletic-east-fife/S0JtVHbO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45297.66666666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:51</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:51</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:51</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/peterhead-spartans/jFj3nJTb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45297.66666666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>3</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Bonnyrigg Rose</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:51</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:51</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:51</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/clyde-bonnyrigg-rose/4blikLqt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45297.66666666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:59</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:59</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:59</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/dumbarton-east-fife/rkmeluan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45297.66666666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Elgin City</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:55</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:55</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:55</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/elgin-city-stranraer/COiamaEh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>league-two</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45297.66666666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:58</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:58</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:58</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-two/stenhousemuir-forfar-athletic/Ywt8owq5/</t>
         </is>
       </c>
     </row>
